--- a/lineboterp/資料庫相關資料/資料庫欄位規則定義.xlsx
+++ b/lineboterp/資料庫相關資料/資料庫欄位規則定義.xlsx
@@ -5,15 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\lineboterp\lineboterp_consumer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\BillAutoIdentify\lineboterp\資料庫相關資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D34E6B5-D798-49A0-B7C7-2B67DCFB02DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B113E9A-5EF7-4EBE-B153-57748C6C2D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF418F30-1C7F-4BC3-8EC8-7D90B0B9EC9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{AF418F30-1C7F-4BC3-8EC8-7D90B0B9EC9D}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="會員資料" sheetId="1" r:id="rId1"/>
+    <sheet name="願望清單" sheetId="2" r:id="rId2"/>
+    <sheet name="訂單資訊" sheetId="3" r:id="rId3"/>
+    <sheet name="訂單詳細資訊" sheetId="4" r:id="rId4"/>
+    <sheet name="進貨資訊" sheetId="5" r:id="rId5"/>
+    <sheet name="商品資訊" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
   <si>
     <r>
       <rPr>
@@ -671,6 +676,185 @@
   </si>
   <si>
     <t>空白 / 否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order2023071900001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單(order+date+當日序號5碼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart20230719000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>購物車(cart+date+當日序號6碼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>行動電話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(09+8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>碼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單成立時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取貨完成時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單狀態未取已取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評分數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評語內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評分時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品圖片_顧客上傳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>未取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>已取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>延長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>超時</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂購數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品小計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售出單價2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,7 +862,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -740,6 +924,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -867,7 +1058,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -889,56 +1080,74 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1254,17 +1463,690 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE98EF3-8D59-4CB0-87A5-3C40AFFE189A}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.75" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="25" t="str">
+        <f>"2023-06-29 15:35:00"</f>
+        <v>2023-06-29 15:35:00</v>
+      </c>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E446E87F-2D82-4B4F-B7F6-F3A44D67A2BA}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="25" t="str">
+        <f>"2023-06-29 15:35:00"</f>
+        <v>2023-06-29 15:35:00</v>
+      </c>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4DC52F-B591-434B-9DA0-CD55224F8A23}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="27"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="25" t="str">
+        <f>"2023-06-29 15:35:00"</f>
+        <v>2023-06-29 15:35:00</v>
+      </c>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="25" t="str">
+        <f>"2023-06-29 15:35:00"</f>
+        <v>2023-06-29 15:35:00</v>
+      </c>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="24"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="25" t="str">
+        <f>"2023-06-29 15:35:00"</f>
+        <v>2023-06-29 15:35:00</v>
+      </c>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69568E34-81E4-4F88-9021-669FFA76575D}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="24"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0EB66E-634E-4DB9-AC11-63B52BD6C421}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADA084E-653D-48BC-9CDB-6BE649432521}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1275,477 +2157,288 @@
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="14"/>
+      <c r="A2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>32</v>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="17"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="16" t="str">
-        <f>"2023-06-29 15:35:00"</f>
-        <v>2023-06-29 15:35:00</v>
-      </c>
-      <c r="D5" s="17"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="17"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="14"/>
+      <c r="C7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="17"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="17"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="16" t="str">
+      <c r="B13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="29"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="29"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="25" t="str">
         <f>"2023-06-29 15:35:00"</f>
         <v>2023-06-29 15:35:00</v>
       </c>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="14"/>
+      <c r="B21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="25" t="str">
+        <f>"2023-06-29 15:35:00"</f>
+        <v>2023-06-29 15:35:00</v>
+      </c>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="14"/>
+      <c r="B24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C26" s="25" t="str">
+        <f>"2023-06-29 15:35:00"</f>
+        <v>2023-06-29 15:35:00</v>
+      </c>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B27" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="22"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="22"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="22"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="16" t="str">
-        <f>"2023-06-29 15:35:00"</f>
-        <v>2023-06-29 15:35:00</v>
-      </c>
-      <c r="D43" s="17"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="16" t="str">
-        <f>"2023-06-29 15:35:00"</f>
-        <v>2023-06-29 15:35:00</v>
-      </c>
-      <c r="D45" s="17"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="22"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="22"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="22"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="16" t="str">
-        <f>"2023-06-29 15:35:00"</f>
-        <v>2023-06-29 15:35:00</v>
-      </c>
-      <c r="D49" s="17"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
+  <mergeCells count="16">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lineboterp/資料庫相關資料/資料庫欄位規則定義.xlsx
+++ b/lineboterp/資料庫相關資料/資料庫欄位規則定義.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\BillAutoIdentify\lineboterp\資料庫相關資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B113E9A-5EF7-4EBE-B153-57748C6C2D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07E155F-617D-454D-AD6F-1EAD48DD071A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{AF418F30-1C7F-4BC3-8EC8-7D90B0B9EC9D}"/>
   </bookViews>
@@ -2138,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADA084E-653D-48BC-9CDB-6BE649432521}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/lineboterp/資料庫相關資料/資料庫欄位規則定義.xlsx
+++ b/lineboterp/資料庫相關資料/資料庫欄位規則定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\BillAutoIdentify\lineboterp\資料庫相關資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07E155F-617D-454D-AD6F-1EAD48DD071A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B598598-DEE3-4EEC-BBFC-E269272D1F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{AF418F30-1C7F-4BC3-8EC8-7D90B0B9EC9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{AF418F30-1C7F-4BC3-8EC8-7D90B0B9EC9D}"/>
   </bookViews>
   <sheets>
     <sheet name="會員資料" sheetId="1" r:id="rId1"/>
@@ -772,6 +772,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>訂購數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品小計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售出單價2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -799,6 +815,25 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
+      <t>預購</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
       <t>已取</t>
     </r>
     <r>
@@ -839,22 +874,72 @@
       </rPr>
       <t>超時</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂購數量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>總額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品小計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售出單價2</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>強制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1689,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4DC52F-B591-434B-9DA0-CD55224F8A23}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1793,7 +1878,7 @@
         <v>71</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D9" s="24"/>
     </row>
@@ -1837,7 +1922,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="24"/>
@@ -2034,7 +2119,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="24"/>
@@ -2042,7 +2127,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="24"/>
@@ -2138,8 +2223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADA084E-653D-48BC-9CDB-6BE649432521}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2404,7 +2489,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="29"/>

--- a/lineboterp/資料庫相關資料/資料庫欄位規則定義.xlsx
+++ b/lineboterp/資料庫相關資料/資料庫欄位規則定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\BillAutoIdentify\lineboterp\資料庫相關資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B598598-DEE3-4EEC-BBFC-E269272D1F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7966063B-4254-42EC-AF22-899502273EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{AF418F30-1C7F-4BC3-8EC8-7D90B0B9EC9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{AF418F30-1C7F-4BC3-8EC8-7D90B0B9EC9D}"/>
   </bookViews>
   <sheets>
     <sheet name="會員資料" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="訂單詳細資訊" sheetId="4" r:id="rId4"/>
     <sheet name="進貨資訊" sheetId="5" r:id="rId5"/>
     <sheet name="商品資訊" sheetId="6" r:id="rId6"/>
+    <sheet name="廠商資訊" sheetId="7" r:id="rId7"/>
+    <sheet name="問題與回答" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="113">
   <si>
     <r>
       <rPr>
@@ -615,10 +617,6 @@
     <t>現預購商品</t>
   </si>
   <si>
-    <t>現購 / 預購 / 下架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品圖片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -788,15 +786,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>未取</t>
+    <t>訂單剩餘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>問題與回答</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -805,6 +818,285 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>Questions_and_Answers</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">廠商資訊
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Manufacturer_Information</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廠商編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廠商名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>負責或對接人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行庫名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行庫代號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯款帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>碼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>碼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>碼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>匯款</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(0+2~3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>碼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)+8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>碼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>字元</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>字元</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>manufacturer+6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>碼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現購未取(現購</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>預購</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>預購截止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> / </t>
     </r>
     <r>
@@ -815,7 +1107,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>預購</t>
+      <t>預購進貨</t>
     </r>
     <r>
       <rPr>
@@ -834,7 +1126,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>已取</t>
+      <t>預購未取</t>
     </r>
     <r>
       <rPr>
@@ -843,6 +1135,65 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現購已取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>預購已取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>超時取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> / </t>
     </r>
     <r>
@@ -853,7 +1204,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>延長</t>
+      <t>現購取消</t>
     </r>
     <r>
       <rPr>
@@ -872,7 +1223,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>超時</t>
+      <t>預購取消</t>
     </r>
     <r>
       <rPr>
@@ -891,55 +1242,58 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>取消</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>強制</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>取消</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
+      <t>店家取消</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廠商方商品序號</t>
+  </si>
+  <si>
+    <t>20碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進貨數量</t>
+  </si>
+  <si>
+    <t>進貨單價</t>
+  </si>
+  <si>
+    <t>3碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進貨時間</t>
+  </si>
+  <si>
+    <t>匯款時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯款金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進貨狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進貨中/已到貨</t>
+  </si>
+  <si>
+    <t>類別</t>
+  </si>
+  <si>
+    <t>問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現購 / 預購 / 現購停售 / 預購截止 / 預購進貨 / 預購停售</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -947,7 +1301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1019,6 +1373,13 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1040,7 +1401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1137,13 +1498,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1210,6 +1582,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1228,10 +1609,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1569,10 +1956,10 @@
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -1599,31 +1986,31 @@
       <c r="B4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="25" t="str">
+      <c r="C5" s="28" t="str">
         <f>"2023-06-29 15:35:00"</f>
         <v>2023-06-29 15:35:00</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -1672,10 +2059,10 @@
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -1690,47 +2077,47 @@
       <c r="B3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="24"/>
+      <c r="C5" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="24"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="25" t="str">
+      <c r="C7" s="28" t="str">
         <f>"2023-06-29 15:35:00"</f>
         <v>2023-06-29 15:35:00</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -1772,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4DC52F-B591-434B-9DA0-CD55224F8A23}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1786,19 +2173,19 @@
     <col min="4" max="4" width="22.125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
@@ -1806,29 +2193,29 @@
       <c r="C2" s="8"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="18"/>
       <c r="C4" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="18" t="s">
         <v>30</v>
@@ -1840,100 +2227,103 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="25" t="str">
+        <v>68</v>
+      </c>
+      <c r="C7" s="28" t="str">
         <f>"2023-06-29 15:35:00"</f>
         <v>2023-06-29 15:35:00</v>
       </c>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="25" t="str">
+        <v>69</v>
+      </c>
+      <c r="C8" s="28" t="str">
         <f>"2023-06-29 15:35:00"</f>
         <v>2023-06-29 15:35:00</v>
       </c>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="27"/>
+    </row>
+    <row r="9" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="24"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="27"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="24"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="25" t="str">
+        <v>73</v>
+      </c>
+      <c r="C12" s="28" t="str">
         <f>"2023-06-29 15:35:00"</f>
         <v>2023-06-29 15:35:00</v>
       </c>
-      <c r="D12" s="24"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="27"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="24"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="24"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="9"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1961,8 +2351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69568E34-81E4-4F88-9021-669FFA76575D}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1980,10 +2370,10 @@
       <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -1997,21 +2387,21 @@
       <c r="B3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2119,18 +2509,18 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="24"/>
+        <v>75</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -2158,10 +2548,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0EB66E-634E-4DB9-AC11-63B52BD6C421}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2179,10 +2569,10 @@
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -2194,25 +2584,216 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="33"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="28" t="str">
+        <f>"2023-06-29 15:35:00"</f>
+        <v>2023-06-29 15:35:00</v>
+      </c>
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="28" t="str">
+        <f>"2023-06-29 15:35:00"</f>
+        <v>2023-06-29 15:35:00</v>
+      </c>
+      <c r="D19" s="27"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="34"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="10">
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2223,16 +2804,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADA084E-653D-48BC-9CDB-6BE649432521}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.25" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
@@ -2242,10 +2823,10 @@
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -2362,141 +2943,143 @@
       <c r="B13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="29"/>
+      <c r="C14" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="33"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
+        <v>48</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
+        <v>49</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
+        <v>50</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
+        <v>51</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="25" t="str">
+        <v>52</v>
+      </c>
+      <c r="C20" s="28" t="str">
         <f>"2023-06-29 15:35:00"</f>
         <v>2023-06-29 15:35:00</v>
       </c>
-      <c r="D20" s="24"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
+        <v>53</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="25" t="str">
+        <v>54</v>
+      </c>
+      <c r="C22" s="28" t="str">
         <f>"2023-06-29 15:35:00"</f>
         <v>2023-06-29 15:35:00</v>
       </c>
-      <c r="D22" s="24"/>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="29"/>
+        <v>55</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
+        <v>56</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="29"/>
+        <v>57</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="25" t="str">
+        <v>58</v>
+      </c>
+      <c r="C26" s="28" t="str">
         <f>"2023-06-29 15:35:00"</f>
         <v>2023-06-29 15:35:00</v>
       </c>
-      <c r="D26" s="24"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
+        <v>78</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
@@ -2528,4 +3111,300 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F826B11-886E-4178-B9F8-DE5FE68F28D3}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="27"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="27"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="27"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="27"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="27"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2D18CC-C4EC-40AD-BF20-7AECEE30F9AF}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="23.5" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="26">
+        <v>50</v>
+      </c>
+      <c r="D4" s="34"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="26">
+        <v>100</v>
+      </c>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="26">
+        <v>255</v>
+      </c>
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lineboterp/資料庫相關資料/資料庫欄位規則定義.xlsx
+++ b/lineboterp/資料庫相關資料/資料庫欄位規則定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\BillAutoIdentify\lineboterp\資料庫相關資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7966063B-4254-42EC-AF22-899502273EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB48FA7-158A-424A-889F-AC6FA4386341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{AF418F30-1C7F-4BC3-8EC8-7D90B0B9EC9D}"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="15375" windowHeight="10110" firstSheet="2" activeTab="6" xr2:uid="{AF418F30-1C7F-4BC3-8EC8-7D90B0B9EC9D}"/>
   </bookViews>
   <sheets>
     <sheet name="會員資料" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="114">
   <si>
     <r>
       <rPr>
@@ -906,22 +906,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>碼</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>付款方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -954,41 +938,6 @@
         <charset val="136"/>
       </rPr>
       <t>匯款</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(0+2~3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>碼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)+8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>碼</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1294,6 +1243,49 @@
   </si>
   <si>
     <t>現購 / 預購 / 現購停售 / 預購截止 / 預購進貨 / 預購停售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(0+2~3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>碼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)+7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>碼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2161,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4DC52F-B591-434B-9DA0-CD55224F8A23}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2265,7 +2257,7 @@
         <v>70</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9">
@@ -2351,7 +2343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69568E34-81E4-4F88-9021-669FFA76575D}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
@@ -2697,17 +2689,17 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="33"/>
@@ -2715,7 +2707,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
@@ -2726,14 +2718,14 @@
         <v>50</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="33"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C18" s="28" t="str">
         <f>"2023-06-29 15:35:00"</f>
@@ -2744,7 +2736,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C19" s="28" t="str">
         <f>"2023-06-29 15:35:00"</f>
@@ -2755,7 +2747,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="34"/>
@@ -2763,10 +2755,10 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D21" s="34"/>
     </row>
@@ -2952,7 +2944,7 @@
         <v>45</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D14" s="33"/>
     </row>
@@ -3117,8 +3109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F826B11-886E-4178-B9F8-DE5FE68F28D3}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3155,7 +3147,7 @@
         <v>82</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" s="27"/>
     </row>
@@ -3165,7 +3157,7 @@
         <v>83</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" s="27"/>
     </row>
@@ -3175,7 +3167,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="27"/>
     </row>
@@ -3185,7 +3177,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D6" s="27"/>
     </row>
@@ -3202,10 +3194,10 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>92</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>93</v>
       </c>
       <c r="D8" s="27"/>
     </row>
@@ -3214,8 +3206,8 @@
       <c r="B9" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>91</v>
+      <c r="C9" s="26" t="s">
+        <v>112</v>
       </c>
       <c r="D9" s="27"/>
     </row>
@@ -3241,9 +3233,14 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="28" t="str">
+        <f>"2023-06-29 15:35:00"</f>
+        <v>2023-06-29 15:35:00</v>
+      </c>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -3276,7 +3273,8 @@
       <c r="D17" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C10:D10"/>
@@ -3339,7 +3337,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="26">
         <v>50</v>
@@ -3349,7 +3347,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" s="26">
         <v>100</v>
@@ -3359,7 +3357,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="26">
         <v>255</v>

--- a/lineboterp/資料庫相關資料/資料庫欄位規則定義.xlsx
+++ b/lineboterp/資料庫相關資料/資料庫欄位規則定義.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\BillAutoIdentify\lineboterp\資料庫相關資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB48FA7-158A-424A-889F-AC6FA4386341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0C75D5-22ED-4422-A99D-B3F0C109D6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="150" windowWidth="15375" windowHeight="10110" firstSheet="2" activeTab="6" xr2:uid="{AF418F30-1C7F-4BC3-8EC8-7D90B0B9EC9D}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="140">
   <si>
     <r>
       <rPr>
@@ -1286,6 +1286,215 @@
   </si>
   <si>
     <t>建立時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺北市、新北市、基隆市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(02)2~3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5~8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市、新竹縣市、花蓮縣、宜蘭縣--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗縣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(037)2~9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中市、彰化縣--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南投縣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(049)2~9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉義縣市、雲林縣--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(03)2~4 / 5~6 / 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(05)2~4 / 5~7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺南市、澎湖縣--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高雄市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(07)2~9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(082)2~5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7~9</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烏坵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0826)6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬祖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0836)2~9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏東縣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(08)4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7~8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺東縣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(089)2~9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(04)2~3 / 7~8 / 4--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(06)2~3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5~7 / 9 / 4</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1293,7 +1502,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1371,6 +1580,12 @@
       <name val="Microsoft JhengHei UI"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1507,7 +1722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1612,6 +1827,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1933,7 +2157,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="21.75" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="4" bestFit="1" customWidth="1"/>
@@ -1941,7 +2165,7 @@
     <col min="4" max="4" width="22.125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="37.5">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1953,7 +2177,7 @@
       </c>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="31.5">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -1961,7 +2185,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
         <v>30</v>
@@ -1973,7 +2197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="14" t="s">
         <v>33</v>
@@ -1983,7 +2207,7 @@
       </c>
       <c r="D4" s="27"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="15" t="s">
         <v>35</v>
@@ -1994,7 +2218,7 @@
       </c>
       <c r="D5" s="27"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="15" t="s">
         <v>36</v>
@@ -2004,13 +2228,13 @@
       </c>
       <c r="D6" s="27"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2036,7 +2260,7 @@
       <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="4" bestFit="1" customWidth="1"/>
@@ -2044,7 +2268,7 @@
     <col min="4" max="4" width="8.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="37.5">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2056,7 +2280,7 @@
       </c>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="31.5">
       <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
@@ -2064,7 +2288,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>38</v>
@@ -2074,7 +2298,7 @@
       </c>
       <c r="D3" s="27"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="12" t="s">
         <v>39</v>
@@ -2082,7 +2306,7 @@
       <c r="C4" s="28"/>
       <c r="D4" s="27"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="12" t="s">
         <v>40</v>
@@ -2092,7 +2316,7 @@
       </c>
       <c r="D5" s="27"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="12" t="s">
         <v>41</v>
@@ -2100,7 +2324,7 @@
       <c r="C6" s="28"/>
       <c r="D6" s="27"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="12" t="s">
         <v>42</v>
@@ -2111,7 +2335,7 @@
       </c>
       <c r="D7" s="27"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="14" t="s">
         <v>43</v>
@@ -2123,13 +2347,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2157,7 +2381,7 @@
       <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.25" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="4" bestFit="1" customWidth="1"/>
@@ -2165,7 +2389,7 @@
     <col min="4" max="4" width="22.125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="37.5">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2177,7 +2401,7 @@
       </c>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="31.5">
       <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
@@ -2185,7 +2409,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="17" t="s">
         <v>61</v>
@@ -2197,7 +2421,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="18"/>
       <c r="C4" s="15" t="s">
@@ -2207,7 +2431,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="18" t="s">
         <v>30</v>
@@ -2219,7 +2443,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="18" t="s">
         <v>66</v>
@@ -2229,7 +2453,7 @@
       </c>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="18" t="s">
         <v>68</v>
@@ -2240,7 +2464,7 @@
       </c>
       <c r="D7" s="27"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="18" t="s">
         <v>69</v>
@@ -2251,7 +2475,7 @@
       </c>
       <c r="D8" s="27"/>
     </row>
-    <row r="9" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="72" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="18" t="s">
         <v>70</v>
@@ -2264,7 +2488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="20" t="s">
         <v>71</v>
@@ -2272,7 +2496,7 @@
       <c r="C10" s="28"/>
       <c r="D10" s="27"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="20" t="s">
         <v>72</v>
@@ -2280,7 +2504,7 @@
       <c r="C11" s="28"/>
       <c r="D11" s="27"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="20" t="s">
         <v>73</v>
@@ -2291,7 +2515,7 @@
       </c>
       <c r="D12" s="27"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="20" t="s">
         <v>74</v>
@@ -2301,7 +2525,7 @@
       </c>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="20" t="s">
         <v>76</v>
@@ -2309,13 +2533,13 @@
       <c r="C14" s="28"/>
       <c r="D14" s="27"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="20"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2347,7 +2571,7 @@
       <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="4" bestFit="1" customWidth="1"/>
@@ -2355,7 +2579,7 @@
     <col min="4" max="4" width="22.125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="37.5">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2367,14 +2591,14 @@
       </c>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="31.5">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="7" t="s">
         <v>38</v>
@@ -2384,7 +2608,7 @@
       </c>
       <c r="D3" s="27"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="19" t="s">
         <v>61</v>
@@ -2396,7 +2620,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="14" t="s">
         <v>9</v>
@@ -2408,7 +2632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="12" t="s">
@@ -2418,7 +2642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="12" t="s">
@@ -2428,7 +2652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="15"/>
       <c r="C8" s="12" t="s">
@@ -2438,7 +2662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="15"/>
       <c r="C9" s="12" t="s">
@@ -2448,7 +2672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="15"/>
       <c r="C10" s="12" t="s">
@@ -2458,7 +2682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="15"/>
       <c r="C11" s="12" t="s">
@@ -2468,7 +2692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="15"/>
       <c r="C12" s="12" t="s">
@@ -2478,7 +2702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="15"/>
       <c r="C13" s="12" t="s">
@@ -2488,7 +2712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="15"/>
       <c r="C14" s="12" t="s">
@@ -2498,7 +2722,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="15" t="s">
         <v>75</v>
@@ -2506,7 +2730,7 @@
       <c r="C15" s="28"/>
       <c r="D15" s="27"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="15" t="s">
         <v>77</v>
@@ -2514,13 +2738,13 @@
       <c r="C16" s="28"/>
       <c r="D16" s="27"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="15"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="3"/>
       <c r="B18" s="15"/>
       <c r="C18" s="1"/>
@@ -2546,7 +2770,7 @@
       <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="21.75" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="4" bestFit="1" customWidth="1"/>
@@ -2554,7 +2778,7 @@
     <col min="4" max="4" width="22.125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="37.5">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2566,7 +2790,7 @@
       </c>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="31.5">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
@@ -2574,7 +2798,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="7" t="s">
         <v>38</v>
@@ -2584,7 +2808,7 @@
       </c>
       <c r="D3" s="27"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
@@ -2596,7 +2820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="10"/>
       <c r="C5" s="12" t="s">
@@ -2606,7 +2830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="10"/>
       <c r="C6" s="12" t="s">
@@ -2616,7 +2840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="12" t="s">
@@ -2626,7 +2850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="10"/>
       <c r="C8" s="12" t="s">
@@ -2636,7 +2860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="10"/>
       <c r="C9" s="12" t="s">
@@ -2646,7 +2870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="10"/>
       <c r="C10" s="12" t="s">
@@ -2656,7 +2880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="10"/>
       <c r="C11" s="12" t="s">
@@ -2666,7 +2890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="10"/>
       <c r="C12" s="12" t="s">
@@ -2676,7 +2900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="10"/>
       <c r="C13" s="12" t="s">
@@ -2686,7 +2910,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="10" t="s">
         <v>97</v>
@@ -2696,7 +2920,7 @@
       </c>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="10" t="s">
         <v>99</v>
@@ -2704,7 +2928,7 @@
       <c r="C15" s="32"/>
       <c r="D15" s="33"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="10" t="s">
         <v>100</v>
@@ -2712,7 +2936,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="19" t="s">
         <v>50</v>
@@ -2722,7 +2946,7 @@
       </c>
       <c r="D17" s="33"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="10" t="s">
         <v>102</v>
@@ -2733,7 +2957,7 @@
       </c>
       <c r="D18" s="27"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="17" t="s">
         <v>103</v>
@@ -2744,7 +2968,7 @@
       </c>
       <c r="D19" s="27"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="15" t="s">
         <v>104</v>
@@ -2752,7 +2976,7 @@
       <c r="C20" s="26"/>
       <c r="D20" s="34"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="15" t="s">
         <v>105</v>
@@ -2762,13 +2986,13 @@
       </c>
       <c r="D21" s="34"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="15"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2800,7 +3024,7 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.25" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="4" bestFit="1" customWidth="1"/>
@@ -2808,7 +3032,7 @@
     <col min="4" max="4" width="34.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="37.5">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2820,7 +3044,7 @@
       </c>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="31.5">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
@@ -2828,7 +3052,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="10" t="s">
         <v>9</v>
@@ -2840,7 +3064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="10"/>
       <c r="C4" s="12" t="s">
@@ -2850,7 +3074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="10"/>
       <c r="C5" s="12" t="s">
@@ -2860,7 +3084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="10"/>
       <c r="C6" s="12" t="s">
@@ -2870,7 +3094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="12" t="s">
@@ -2880,7 +3104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="10"/>
       <c r="C8" s="12" t="s">
@@ -2890,7 +3114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="10"/>
       <c r="C9" s="12" t="s">
@@ -2900,7 +3124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="10"/>
       <c r="C10" s="12" t="s">
@@ -2910,7 +3134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="10"/>
       <c r="C11" s="12" t="s">
@@ -2920,7 +3144,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="10"/>
       <c r="C12" s="12" t="s">
@@ -2930,7 +3154,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="11" t="s">
         <v>39</v>
@@ -2938,7 +3162,7 @@
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="11" t="s">
         <v>45</v>
@@ -2948,7 +3172,7 @@
       </c>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="11" t="s">
         <v>46</v>
@@ -2958,7 +3182,7 @@
       </c>
       <c r="D15" s="33"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="11" t="s">
         <v>48</v>
@@ -2966,7 +3190,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="11" t="s">
         <v>49</v>
@@ -2974,7 +3198,7 @@
       <c r="C17" s="32"/>
       <c r="D17" s="33"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="11" t="s">
         <v>50</v>
@@ -2982,7 +3206,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="11" t="s">
         <v>51</v>
@@ -2990,7 +3214,7 @@
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="11" t="s">
         <v>52</v>
@@ -3001,7 +3225,7 @@
       </c>
       <c r="D20" s="27"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="11" t="s">
         <v>53</v>
@@ -3009,7 +3233,7 @@
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="11" t="s">
         <v>54</v>
@@ -3020,7 +3244,7 @@
       </c>
       <c r="D22" s="27"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="11" t="s">
         <v>55</v>
@@ -3030,7 +3254,7 @@
       </c>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="11" t="s">
         <v>56</v>
@@ -3038,7 +3262,7 @@
       <c r="C24" s="32"/>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="11" t="s">
         <v>57</v>
@@ -3048,7 +3272,7 @@
       </c>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="11" t="s">
         <v>58</v>
@@ -3059,7 +3283,7 @@
       </c>
       <c r="D26" s="27"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="11" t="s">
         <v>78</v>
@@ -3067,7 +3291,7 @@
       <c r="C27" s="32"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="11" t="s">
         <v>79</v>
@@ -3075,7 +3299,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3107,21 +3331,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F826B11-886E-4178-B9F8-DE5FE68F28D3}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="37.5">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -3133,7 +3357,7 @@
       </c>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="31.5">
       <c r="A2" s="16" t="s">
         <v>81</v>
       </c>
@@ -3141,7 +3365,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="22" t="s">
         <v>82</v>
@@ -3151,7 +3375,7 @@
       </c>
       <c r="D3" s="27"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="22" t="s">
         <v>83</v>
@@ -3161,7 +3385,7 @@
       </c>
       <c r="D4" s="27"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="22" t="s">
         <v>84</v>
@@ -3171,116 +3395,298 @@
       </c>
       <c r="D5" s="27"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="35"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" t="str">
+        <f>"+8，總碼長10碼"</f>
+        <v>+8，總碼長10碼</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" t="str">
+        <f>"+7，總碼長9碼"</f>
+        <v>+7，總碼長9碼</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" t="str">
+        <f>"+6，總碼長9碼"</f>
+        <v>+6，總碼長9碼</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" t="str">
+        <f>"+8、+7，總碼長9~10碼"</f>
+        <v>+8、+7，總碼長9~10碼</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" t="str">
+        <f>"+7，總碼長10碼"</f>
+        <v>+7，總碼長10碼</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" t="str">
+        <f>"+7，總碼長9碼"</f>
+        <v>+7，總碼長9碼</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" t="str">
+        <f>"+7，總碼長9碼"</f>
+        <v>+7，總碼長9碼</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" t="str">
+        <f>"+7，總碼長9碼"</f>
+        <v>+7，總碼長9碼</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" t="str">
+        <f>"+6，總碼長9碼"</f>
+        <v>+6，總碼長9碼</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" t="str">
+        <f>"+5，總碼長9碼"</f>
+        <v>+5，總碼長9碼</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" t="str">
+        <f>"+5，總碼長9碼"</f>
+        <v>+5，總碼長9碼</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" t="str">
+        <f>"+7，總碼長9碼"</f>
+        <v>+7，總碼長9碼</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" t="str">
+        <f>"+6，總碼長9碼"</f>
+        <v>+6，總碼長9碼</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2"/>
+      <c r="B20" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C20" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="22" t="s">
+      <c r="D20" s="27"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2"/>
+      <c r="B21" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C21" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="22" t="s">
+      <c r="D21" s="27"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2"/>
+      <c r="B22" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C22" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="27"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="22" t="s">
+      <c r="D22" s="27"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C23" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="22" t="s">
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C24" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="27"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="22" t="s">
+      <c r="D24" s="27"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2"/>
+      <c r="B25" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="28" t="str">
+      <c r="C25" s="28" t="str">
         <f>"2023-06-29 15:35:00"</f>
         <v>2023-06-29 15:35:00</v>
       </c>
-      <c r="D12" s="27"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C4:D4"/>
@@ -3299,12 +3705,12 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.5" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="4" width="23.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="37.5">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -3316,7 +3722,7 @@
       </c>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="31.5">
       <c r="A2" s="16" t="s">
         <v>80</v>
       </c>
@@ -3324,7 +3730,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="7" t="s">
         <v>38</v>
@@ -3334,7 +3740,7 @@
       </c>
       <c r="D3" s="27"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="23" t="s">
         <v>107</v>
@@ -3344,7 +3750,7 @@
       </c>
       <c r="D4" s="34"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="24" t="s">
         <v>108</v>
@@ -3354,7 +3760,7 @@
       </c>
       <c r="D5" s="34"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="24" t="s">
         <v>109</v>
@@ -3364,31 +3770,31 @@
       </c>
       <c r="D6" s="34"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="23"/>
       <c r="C7" s="15"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="23"/>
       <c r="C8" s="15"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="23"/>
       <c r="C9" s="15"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="9"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>

--- a/lineboterp/資料庫相關資料/資料庫欄位規則定義.xlsx
+++ b/lineboterp/資料庫相關資料/資料庫欄位規則定義.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\BillAutoIdentify\lineboterp\資料庫相關資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\git\BillAutoIdentify\lineboterp\資料庫相關資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB48FA7-158A-424A-889F-AC6FA4386341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="15375" windowHeight="10110" firstSheet="2" activeTab="6" xr2:uid="{AF418F30-1C7F-4BC3-8EC8-7D90B0B9EC9D}"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="15375" windowHeight="10110" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="會員資料" sheetId="1" r:id="rId1"/>
@@ -1292,7 +1291,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1926,7 +1925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE98EF3-8D59-4CB0-87A5-3C40AFFE189A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2029,7 +2028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E446E87F-2D82-4B4F-B7F6-F3A44D67A2BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2150,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4DC52F-B591-434B-9DA0-CD55224F8A23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2340,7 +2339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69568E34-81E4-4F88-9021-669FFA76575D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
@@ -2539,11 +2538,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0EB66E-634E-4DB9-AC11-63B52BD6C421}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2793,7 +2792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADA084E-653D-48BC-9CDB-6BE649432521}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -3106,10 +3105,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F826B11-886E-4178-B9F8-DE5FE68F28D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
@@ -3292,7 +3291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2D18CC-C4EC-40AD-BF20-7AECEE30F9AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/lineboterp/資料庫相關資料/資料庫欄位規則定義.xlsx
+++ b/lineboterp/資料庫相關資料/資料庫欄位規則定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\BillAutoIdentify\lineboterp\資料庫相關資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0C75D5-22ED-4422-A99D-B3F0C109D6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405B1BFE-2FDB-40AA-A55E-9754852822E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="15375" windowHeight="10110" firstSheet="2" activeTab="6" xr2:uid="{AF418F30-1C7F-4BC3-8EC8-7D90B0B9EC9D}"/>
+    <workbookView xWindow="3720" yWindow="810" windowWidth="15375" windowHeight="10110" firstSheet="3" activeTab="7" xr2:uid="{AF418F30-1C7F-4BC3-8EC8-7D90B0B9EC9D}"/>
   </bookViews>
   <sheets>
     <sheet name="會員資料" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="143">
   <si>
     <r>
       <rPr>
@@ -1495,6 +1495,30 @@
       </rPr>
       <t>5~7 / 9 / 4</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>字</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1798,6 +1822,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1830,12 +1860,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2172,10 +2196,10 @@
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="31.5">
       <c r="A2" s="16" t="s">
@@ -2202,31 +2226,31 @@
       <c r="B4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="28" t="str">
+      <c r="C5" s="30" t="str">
         <f>"2023-06-29 15:35:00"</f>
         <v>2023-06-29 15:35:00</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
@@ -2275,10 +2299,10 @@
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="31.5">
       <c r="A2" s="16" t="s">
@@ -2293,47 +2317,47 @@
       <c r="B3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="28" t="str">
+      <c r="C7" s="30" t="str">
         <f>"2023-06-29 15:35:00"</f>
         <v>2023-06-29 15:35:00</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2"/>
@@ -2396,10 +2420,10 @@
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="31.5">
       <c r="A2" s="16" t="s">
@@ -2448,42 +2472,42 @@
       <c r="B6" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="28" t="str">
+      <c r="C7" s="30" t="str">
         <f>"2023-06-29 15:35:00"</f>
         <v>2023-06-29 15:35:00</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="28" t="str">
+      <c r="C8" s="30" t="str">
         <f>"2023-06-29 15:35:00"</f>
         <v>2023-06-29 15:35:00</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="72" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9">
         <v>7</v>
       </c>
@@ -2493,45 +2517,45 @@
       <c r="B10" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="27"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="28" t="str">
+      <c r="C12" s="30" t="str">
         <f>"2023-06-29 15:35:00"</f>
         <v>2023-06-29 15:35:00</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2"/>
@@ -2586,10 +2610,10 @@
       <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="31.5">
       <c r="A2" s="16" t="s">
@@ -2603,10 +2627,10 @@
       <c r="B3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2"/>
@@ -2727,16 +2751,16 @@
       <c r="B15" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="29"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="27"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2"/>
@@ -2766,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0EB66E-634E-4DB9-AC11-63B52BD6C421}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
@@ -2785,10 +2809,10 @@
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="31.5">
       <c r="A2" s="16" t="s">
@@ -2803,10 +2827,10 @@
       <c r="B3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2"/>
@@ -2915,76 +2939,76 @@
       <c r="B14" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="35"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="33"/>
+      <c r="D17" s="35"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="28" t="str">
+      <c r="C18" s="30" t="str">
         <f>"2023-06-29 15:35:00"</f>
         <v>2023-06-29 15:35:00</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="28" t="str">
+      <c r="C19" s="30" t="str">
         <f>"2023-06-29 15:35:00"</f>
         <v>2023-06-29 15:35:00</v>
       </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="36"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="36"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2"/>
@@ -3020,7 +3044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADA084E-653D-48BC-9CDB-6BE649432521}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -3039,10 +3063,10 @@
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="31.5">
       <c r="A2" s="16" t="s">
@@ -3159,137 +3183,137 @@
       <c r="B13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="35"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="D15" s="35"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="28" t="str">
+      <c r="C20" s="30" t="str">
         <f>"2023-06-29 15:35:00"</f>
         <v>2023-06-29 15:35:00</v>
       </c>
-      <c r="D20" s="27"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="28" t="str">
+      <c r="C22" s="30" t="str">
         <f>"2023-06-29 15:35:00"</f>
         <v>2023-06-29 15:35:00</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="29"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="33"/>
+      <c r="D23" s="35"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="33"/>
+      <c r="D25" s="35"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="28" t="str">
+      <c r="C26" s="30" t="str">
         <f>"2023-06-29 15:35:00"</f>
         <v>2023-06-29 15:35:00</v>
       </c>
-      <c r="D26" s="27"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2"/>
@@ -3333,8 +3357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F826B11-886E-4178-B9F8-DE5FE68F28D3}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5"/>
@@ -3352,10 +3376,10 @@
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="31.5">
       <c r="A2" s="16" t="s">
@@ -3370,48 +3394,48 @@
       <c r="B3" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="22"/>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="26" t="s">
         <v>115</v>
       </c>
       <c r="E7" t="str">
@@ -3422,10 +3446,10 @@
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="26" t="s">
         <v>123</v>
       </c>
       <c r="E8" t="str">
@@ -3436,10 +3460,10 @@
     <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="26" t="s">
         <v>118</v>
       </c>
       <c r="E9" t="str">
@@ -3450,10 +3474,10 @@
     <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="26" t="s">
         <v>138</v>
       </c>
       <c r="E10" t="str">
@@ -3464,10 +3488,10 @@
     <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="26" t="s">
         <v>121</v>
       </c>
       <c r="E11" t="str">
@@ -3478,10 +3502,10 @@
     <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="22"/>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="26" t="s">
         <v>124</v>
       </c>
       <c r="E12" t="str">
@@ -3492,10 +3516,10 @@
     <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="26" t="s">
         <v>139</v>
       </c>
       <c r="E13" t="str">
@@ -3506,10 +3530,10 @@
     <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="26" t="s">
         <v>127</v>
       </c>
       <c r="E14" t="str">
@@ -3520,10 +3544,10 @@
     <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="26" t="s">
         <v>129</v>
       </c>
       <c r="E15" t="str">
@@ -3534,10 +3558,10 @@
     <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="22"/>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="26" t="s">
         <v>131</v>
       </c>
       <c r="E16" t="str">
@@ -3548,10 +3572,10 @@
     <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="22"/>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="26" t="s">
         <v>133</v>
       </c>
       <c r="E17" t="str">
@@ -3562,10 +3586,10 @@
     <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="26" t="s">
         <v>135</v>
       </c>
       <c r="E18" t="str">
@@ -3576,10 +3600,10 @@
     <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="26" t="s">
         <v>137</v>
       </c>
       <c r="E19" t="str">
@@ -3592,61 +3616,61 @@
       <c r="B20" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="27"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="27"/>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="29"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="27"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="28" t="str">
+      <c r="C25" s="30" t="str">
         <f>"2023-06-29 15:35:00"</f>
         <v>2023-06-29 15:35:00</v>
       </c>
-      <c r="D25" s="27"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2"/>
@@ -3701,8 +3725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2D18CC-C4EC-40AD-BF20-7AECEE30F9AF}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5" defaultRowHeight="16.5"/>
@@ -3717,10 +3741,10 @@
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="31.5">
       <c r="A2" s="16" t="s">
@@ -3735,40 +3759,40 @@
       <c r="B3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="26">
-        <v>50</v>
-      </c>
-      <c r="D4" s="34"/>
+      <c r="C4" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="26">
-        <v>100</v>
-      </c>
-      <c r="D5" s="34"/>
+      <c r="C5" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="26">
-        <v>255</v>
-      </c>
-      <c r="D6" s="34"/>
+      <c r="C6" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>

--- a/lineboterp/資料庫相關資料/資料庫欄位規則定義.xlsx
+++ b/lineboterp/資料庫相關資料/資料庫欄位規則定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\BillAutoIdentify\lineboterp\資料庫相關資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405B1BFE-2FDB-40AA-A55E-9754852822E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECBF904-E246-4E8C-A36E-38CA764335A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="810" windowWidth="15375" windowHeight="10110" firstSheet="3" activeTab="7" xr2:uid="{AF418F30-1C7F-4BC3-8EC8-7D90B0B9EC9D}"/>
+    <workbookView xWindow="4410" yWindow="810" windowWidth="15375" windowHeight="10110" firstSheet="2" activeTab="2" xr2:uid="{AF418F30-1C7F-4BC3-8EC8-7D90B0B9EC9D}"/>
   </bookViews>
   <sheets>
     <sheet name="會員資料" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="144">
   <si>
     <r>
       <rPr>
@@ -1519,6 +1519,10 @@
   </si>
   <si>
     <t>255字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可取消訂單時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1746,7 +1750,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1859,6 +1863,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2401,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4DC52F-B591-434B-9DA0-CD55224F8A23}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="16.5"/>
@@ -2559,9 +2566,14 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="30" t="str">
+        <f>"2023-06-29 15:35:00"</f>
+        <v>2023-06-29 15:35:00</v>
+      </c>
+      <c r="D15" s="29"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
@@ -2570,7 +2582,8 @@
       <c r="D16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C11:D11"/>
@@ -3725,7 +3738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2D18CC-C4EC-40AD-BF20-7AECEE30F9AF}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
